--- a/data/pca/factorExposure/factorExposure_2018-06-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01881539158939963</v>
+        <v>0.0202163381112908</v>
       </c>
       <c r="C2">
-        <v>0.01933622059785254</v>
+        <v>-0.01916917854540016</v>
       </c>
       <c r="D2">
-        <v>-0.01028255935034283</v>
+        <v>-0.02079991804996194</v>
       </c>
       <c r="E2">
-        <v>-0.01423043055009752</v>
+        <v>0.01375568029828023</v>
       </c>
       <c r="F2">
-        <v>-0.1119262335925914</v>
+        <v>0.007843111696973546</v>
       </c>
       <c r="G2">
-        <v>-0.05836682968341421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04478794166990396</v>
+      </c>
+      <c r="H2">
+        <v>-0.05395822417378803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09425052606636991</v>
+        <v>0.07588867125193272</v>
       </c>
       <c r="C3">
-        <v>-0.01879576189113873</v>
+        <v>0.0106376700285498</v>
       </c>
       <c r="D3">
-        <v>-0.08047527414955356</v>
+        <v>-0.02737122069820595</v>
       </c>
       <c r="E3">
-        <v>-0.05520044625601808</v>
+        <v>0.005549923740346865</v>
       </c>
       <c r="F3">
-        <v>-0.3871300118332013</v>
+        <v>-0.01968975123646741</v>
       </c>
       <c r="G3">
-        <v>-0.1497982743106662</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.155101363089463</v>
+      </c>
+      <c r="H3">
+        <v>-0.1686430196445076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03764608109157801</v>
+        <v>0.04280606690246704</v>
       </c>
       <c r="C4">
-        <v>0.01138054126347481</v>
+        <v>-0.00642069149537293</v>
       </c>
       <c r="D4">
-        <v>0.01368745038111421</v>
+        <v>-0.04726914264651441</v>
       </c>
       <c r="E4">
-        <v>0.04991002520190577</v>
+        <v>-0.02053537088801289</v>
       </c>
       <c r="F4">
-        <v>-0.07826020294556003</v>
+        <v>0.05486625437188251</v>
       </c>
       <c r="G4">
-        <v>-0.05137305377311378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03183405831470141</v>
+      </c>
+      <c r="H4">
+        <v>-0.05844958043843936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02140848157076774</v>
+        <v>0.0248151173409274</v>
       </c>
       <c r="C6">
-        <v>0.01066322241213109</v>
+        <v>-0.00483873832201629</v>
       </c>
       <c r="D6">
-        <v>-0.009258499591608052</v>
+        <v>-0.05306108656573561</v>
       </c>
       <c r="E6">
-        <v>0.01847377548361036</v>
+        <v>-0.005560860427069146</v>
       </c>
       <c r="F6">
-        <v>-0.02699017586953116</v>
+        <v>0.03330872405933436</v>
       </c>
       <c r="G6">
-        <v>0.001123448717059641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.008234434392399459</v>
+      </c>
+      <c r="H6">
+        <v>-0.06533048197556045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02132276475931803</v>
+        <v>0.02009536375649167</v>
       </c>
       <c r="C7">
-        <v>0.0002190722274839263</v>
+        <v>-0.003765208199704344</v>
       </c>
       <c r="D7">
-        <v>-0.01538273791702621</v>
+        <v>-0.02683068013188606</v>
       </c>
       <c r="E7">
-        <v>0.02771532794867323</v>
+        <v>-0.04332710314395533</v>
       </c>
       <c r="F7">
-        <v>-0.05192992981970353</v>
+        <v>0.008163198857451219</v>
       </c>
       <c r="G7">
-        <v>-0.06354983651854916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01883008075975523</v>
+      </c>
+      <c r="H7">
+        <v>-0.0395962474225303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01798309993784648</v>
+        <v>0.005740830077360108</v>
       </c>
       <c r="C8">
-        <v>0.01133149251972358</v>
+        <v>0.001305436616771139</v>
       </c>
       <c r="D8">
-        <v>-0.00726738096265107</v>
+        <v>-0.01044944930439728</v>
       </c>
       <c r="E8">
-        <v>0.03808297061003034</v>
+        <v>-0.00671957926243325</v>
       </c>
       <c r="F8">
-        <v>-0.1041146138644482</v>
+        <v>0.02065875623298088</v>
       </c>
       <c r="G8">
-        <v>-0.05551491041630489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.03980738595676158</v>
+      </c>
+      <c r="H8">
+        <v>-0.0461574066874428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03174589309859108</v>
+        <v>0.03448703383702927</v>
       </c>
       <c r="C9">
-        <v>0.01389630287791039</v>
+        <v>-0.00191494873792868</v>
       </c>
       <c r="D9">
-        <v>0.003168635220427795</v>
+        <v>-0.03591540056565096</v>
       </c>
       <c r="E9">
-        <v>0.03728991710561337</v>
+        <v>-0.009761989340917021</v>
       </c>
       <c r="F9">
-        <v>-0.09316647829980355</v>
+        <v>0.02974486911633758</v>
       </c>
       <c r="G9">
-        <v>-0.05843255706204788</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.040647626030108</v>
+      </c>
+      <c r="H9">
+        <v>-0.05838551706395929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03141831390295597</v>
+        <v>0.1067120871168065</v>
       </c>
       <c r="C10">
-        <v>-0.06832557468836534</v>
+        <v>0.02858358235538768</v>
       </c>
       <c r="D10">
-        <v>0.08360088004647931</v>
+        <v>0.1541963185267085</v>
       </c>
       <c r="E10">
-        <v>-0.1096459145719942</v>
+        <v>0.002944997286575312</v>
       </c>
       <c r="F10">
-        <v>-0.05275012739375441</v>
+        <v>-0.04434706750928046</v>
       </c>
       <c r="G10">
-        <v>0.00967298511058858</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02549393442351692</v>
+      </c>
+      <c r="H10">
+        <v>-0.0100106639118243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03240595103405875</v>
+        <v>0.01952733074150526</v>
       </c>
       <c r="C11">
-        <v>0.02070227841857676</v>
+        <v>0.00739013755422908</v>
       </c>
       <c r="D11">
-        <v>-0.01808389818076205</v>
+        <v>-0.03986830110801609</v>
       </c>
       <c r="E11">
-        <v>0.02773606166229018</v>
+        <v>0.001092812916733848</v>
       </c>
       <c r="F11">
-        <v>-0.04579248463228246</v>
+        <v>0.0122726990635891</v>
       </c>
       <c r="G11">
-        <v>-0.02220666305621118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02056156883421749</v>
+      </c>
+      <c r="H11">
+        <v>-0.04755482498766743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04024268198955381</v>
+        <v>0.02718975526894521</v>
       </c>
       <c r="C12">
-        <v>0.02333555533925422</v>
+        <v>0.005358208372138747</v>
       </c>
       <c r="D12">
-        <v>-0.01207015269584801</v>
+        <v>-0.04107215623188724</v>
       </c>
       <c r="E12">
-        <v>0.03686777582701428</v>
+        <v>-0.008272040434176453</v>
       </c>
       <c r="F12">
-        <v>-0.0286889872335393</v>
+        <v>0.01902008968374187</v>
       </c>
       <c r="G12">
-        <v>-0.007199760544404531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.00592280238927924</v>
+      </c>
+      <c r="H12">
+        <v>-0.02239754115556441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01290590768989543</v>
+        <v>0.0249324351485474</v>
       </c>
       <c r="C13">
-        <v>0.02081807687838825</v>
+        <v>-0.01485987048175049</v>
       </c>
       <c r="D13">
-        <v>0.0006592657514137269</v>
+        <v>0.0005354370177305543</v>
       </c>
       <c r="E13">
-        <v>-0.003800612033051172</v>
+        <v>0.01141361369260552</v>
       </c>
       <c r="F13">
-        <v>-0.07732109809388452</v>
+        <v>0.01536032484630966</v>
       </c>
       <c r="G13">
-        <v>-0.04210701679832414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.04707616384116391</v>
+      </c>
+      <c r="H13">
+        <v>-0.06698542523096639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01470277395062544</v>
+        <v>0.01726758340334758</v>
       </c>
       <c r="C14">
-        <v>0.001541520976423546</v>
+        <v>-0.001064943831347878</v>
       </c>
       <c r="D14">
-        <v>0.00411009738833341</v>
+        <v>-0.00518323692185388</v>
       </c>
       <c r="E14">
-        <v>0.03666259848593949</v>
+        <v>-0.01374791030202179</v>
       </c>
       <c r="F14">
-        <v>-0.05841538839688352</v>
+        <v>0.01615799526535465</v>
       </c>
       <c r="G14">
-        <v>-0.06775714197517846</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03913398456629877</v>
+      </c>
+      <c r="H14">
+        <v>-0.01253476660831224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02512880326626811</v>
+        <v>0.02118186078222381</v>
       </c>
       <c r="C16">
-        <v>0.02406082715248549</v>
+        <v>0.00797175229304041</v>
       </c>
       <c r="D16">
-        <v>-0.01577368170202272</v>
+        <v>-0.03504402660437729</v>
       </c>
       <c r="E16">
-        <v>0.02227911645839396</v>
+        <v>-0.002207209548562944</v>
       </c>
       <c r="F16">
-        <v>-0.05169171502230092</v>
+        <v>0.01805794689815452</v>
       </c>
       <c r="G16">
-        <v>-0.02465727610080767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01848141980770047</v>
+      </c>
+      <c r="H16">
+        <v>-0.03821804255595618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04664265451026579</v>
+        <v>0.0328957356632078</v>
       </c>
       <c r="C19">
-        <v>0.01712265533161689</v>
+        <v>-0.001327182174980858</v>
       </c>
       <c r="D19">
-        <v>-0.01481531116062976</v>
+        <v>-0.02214151051265355</v>
       </c>
       <c r="E19">
-        <v>0.03241280041470857</v>
+        <v>-0.004803377880653224</v>
       </c>
       <c r="F19">
-        <v>-0.1076083968992071</v>
+        <v>0.02411503925198024</v>
       </c>
       <c r="G19">
-        <v>-0.02802644046376239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.04948836166060838</v>
+      </c>
+      <c r="H19">
+        <v>-0.07406085374173671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001262901828944924</v>
+        <v>0.009010742971245961</v>
       </c>
       <c r="C20">
-        <v>0.006573521258916713</v>
+        <v>-0.007021187123195464</v>
       </c>
       <c r="D20">
-        <v>0.003570560809548935</v>
+        <v>-0.007858527090790195</v>
       </c>
       <c r="E20">
-        <v>0.03045513238455398</v>
+        <v>-0.004236747634507609</v>
       </c>
       <c r="F20">
-        <v>-0.07277518193613865</v>
+        <v>0.01634818387140019</v>
       </c>
       <c r="G20">
-        <v>-0.0694005925251953</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04414590461260845</v>
+      </c>
+      <c r="H20">
+        <v>-0.02241403773566723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.005141436837190863</v>
+        <v>0.01367904842303583</v>
       </c>
       <c r="C21">
-        <v>-0.01774095914208185</v>
+        <v>-0.009085131022573753</v>
       </c>
       <c r="D21">
-        <v>-0.01953566838347373</v>
+        <v>-0.009166825112500276</v>
       </c>
       <c r="E21">
-        <v>0.02480305971500239</v>
+        <v>-0.01843069684861655</v>
       </c>
       <c r="F21">
-        <v>-0.05342582955298391</v>
+        <v>0.007079716784014941</v>
       </c>
       <c r="G21">
-        <v>-0.02552442121467679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04232108276729865</v>
+      </c>
+      <c r="H21">
+        <v>-0.04821635719659017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02946782981919889</v>
+        <v>0.01842867933198981</v>
       </c>
       <c r="C24">
-        <v>0.02342518792825995</v>
+        <v>0.002304485746630819</v>
       </c>
       <c r="D24">
-        <v>-0.00103391383286163</v>
+        <v>-0.03537242910615403</v>
       </c>
       <c r="E24">
-        <v>0.01015009850834886</v>
+        <v>-0.0004839919094051808</v>
       </c>
       <c r="F24">
-        <v>-0.04440084492590646</v>
+        <v>0.01306308190655264</v>
       </c>
       <c r="G24">
-        <v>-0.02106213568900899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01217243515825955</v>
+      </c>
+      <c r="H24">
+        <v>-0.04634211857490898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03002989815693795</v>
+        <v>0.02861665973265604</v>
       </c>
       <c r="C25">
-        <v>0.01415876194490579</v>
+        <v>0.0002738206195368131</v>
       </c>
       <c r="D25">
-        <v>-0.01700328761412482</v>
+        <v>-0.03541524978508372</v>
       </c>
       <c r="E25">
-        <v>0.0293862843520922</v>
+        <v>-0.004547507650597063</v>
       </c>
       <c r="F25">
-        <v>-0.05010167653331931</v>
+        <v>0.01973644915129111</v>
       </c>
       <c r="G25">
-        <v>-0.007827184809878762</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01736710295389917</v>
+      </c>
+      <c r="H25">
+        <v>-0.04571556185336131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01990580394925951</v>
+        <v>0.01854134147664614</v>
       </c>
       <c r="C26">
-        <v>0.007772901605305761</v>
+        <v>-0.01805278629908022</v>
       </c>
       <c r="D26">
-        <v>-0.02963800786536533</v>
+        <v>-0.001602612203232679</v>
       </c>
       <c r="E26">
-        <v>0.00254554292061967</v>
+        <v>0.001354445044472523</v>
       </c>
       <c r="F26">
-        <v>-0.07026613368657544</v>
+        <v>0.0006054232324048634</v>
       </c>
       <c r="G26">
-        <v>-0.04870378076472773</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03034969379663394</v>
+      </c>
+      <c r="H26">
+        <v>-0.02202080224766649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0613186856746955</v>
+        <v>0.02319715746884772</v>
       </c>
       <c r="C27">
-        <v>0.02223106655136554</v>
+        <v>0.008382078960505995</v>
       </c>
       <c r="D27">
-        <v>0.02532080099329656</v>
+        <v>-0.01655659574559864</v>
       </c>
       <c r="E27">
-        <v>0.04198127530101262</v>
+        <v>-0.0041922379966431</v>
       </c>
       <c r="F27">
-        <v>-0.06038900247602687</v>
+        <v>0.0167198968338451</v>
       </c>
       <c r="G27">
-        <v>-0.04325655828842937</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01660300191217843</v>
+      </c>
+      <c r="H27">
+        <v>-0.004554872047436685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04957563681348497</v>
+        <v>0.1573336254190388</v>
       </c>
       <c r="C28">
-        <v>-0.0808456879275804</v>
+        <v>0.02906595156904785</v>
       </c>
       <c r="D28">
-        <v>0.1259314274880937</v>
+        <v>0.2170038130637705</v>
       </c>
       <c r="E28">
-        <v>-0.1435568990078698</v>
+        <v>-0.0007719427862287894</v>
       </c>
       <c r="F28">
-        <v>-0.05500106151653599</v>
+        <v>-0.04437827254209724</v>
       </c>
       <c r="G28">
-        <v>-0.01758986508974259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01148614071004241</v>
+      </c>
+      <c r="H28">
+        <v>0.008552763592657579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02074022071096983</v>
+        <v>0.02086044695651583</v>
       </c>
       <c r="C29">
-        <v>-0.0008940946583859896</v>
+        <v>0.0005939711680562442</v>
       </c>
       <c r="D29">
-        <v>0.00530102526096072</v>
+        <v>-0.006199134695739648</v>
       </c>
       <c r="E29">
-        <v>0.05116789538217869</v>
+        <v>-0.01452130062556988</v>
       </c>
       <c r="F29">
-        <v>-0.04951769176070168</v>
+        <v>0.01815733327241234</v>
       </c>
       <c r="G29">
-        <v>-0.05678672971765127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03700190177626672</v>
+      </c>
+      <c r="H29">
+        <v>-0.005647647059351555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08878959776879174</v>
+        <v>0.04852364225657106</v>
       </c>
       <c r="C30">
-        <v>0.05458399849195725</v>
+        <v>-0.00678230790688485</v>
       </c>
       <c r="D30">
-        <v>-0.00545494980390765</v>
+        <v>-0.07208665195543293</v>
       </c>
       <c r="E30">
-        <v>0.07100259429726531</v>
+        <v>0.03147172742347159</v>
       </c>
       <c r="F30">
-        <v>-0.0991050783082951</v>
+        <v>0.05247343406389477</v>
       </c>
       <c r="G30">
-        <v>-0.05449836958081029</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.04359124528739434</v>
+      </c>
+      <c r="H30">
+        <v>-0.06982849302835817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05752556640177211</v>
+        <v>0.05208553842855673</v>
       </c>
       <c r="C31">
-        <v>0.02871433386731169</v>
+        <v>0.01271932258461464</v>
       </c>
       <c r="D31">
-        <v>-0.01350595794651051</v>
+        <v>-0.02417866962322458</v>
       </c>
       <c r="E31">
-        <v>0.001871111292403909</v>
+        <v>0.004409993940148517</v>
       </c>
       <c r="F31">
-        <v>-0.04189694622025197</v>
+        <v>0.01080739984816447</v>
       </c>
       <c r="G31">
-        <v>-0.07363785898600474</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01385800265896469</v>
+      </c>
+      <c r="H31">
+        <v>-0.009550504653797837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01824753375997426</v>
+        <v>0.01022580802680309</v>
       </c>
       <c r="C32">
-        <v>0.01258895355754652</v>
+        <v>0.01284053749018097</v>
       </c>
       <c r="D32">
-        <v>-0.02241296226946863</v>
+        <v>-0.007534593850734023</v>
       </c>
       <c r="E32">
-        <v>0.07509722929309086</v>
+        <v>-0.03009962986109856</v>
       </c>
       <c r="F32">
-        <v>-0.07853649827837873</v>
+        <v>0.04240462902571866</v>
       </c>
       <c r="G32">
-        <v>-0.05501020451435337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.025549086941794</v>
+      </c>
+      <c r="H32">
+        <v>-0.06337678227040847</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04538926827667078</v>
+        <v>0.03803799594110286</v>
       </c>
       <c r="C33">
-        <v>0.02321384975405141</v>
+        <v>0.000447088201728512</v>
       </c>
       <c r="D33">
-        <v>-0.04241822894403122</v>
+        <v>-0.03183425148226746</v>
       </c>
       <c r="E33">
-        <v>0.02542791305152089</v>
+        <v>0.02292707491900759</v>
       </c>
       <c r="F33">
-        <v>-0.08768421086072567</v>
+        <v>0.0047798785470952</v>
       </c>
       <c r="G33">
-        <v>-0.06666802260576066</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04071462330965758</v>
+      </c>
+      <c r="H33">
+        <v>-0.04489071800604345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02903073468956868</v>
+        <v>0.02439634451794235</v>
       </c>
       <c r="C34">
-        <v>0.02309002884054851</v>
+        <v>0.01592855600059911</v>
       </c>
       <c r="D34">
-        <v>-0.01216106461396141</v>
+        <v>-0.03665524428517496</v>
       </c>
       <c r="E34">
-        <v>0.02894609072852202</v>
+        <v>-0.008796545770845264</v>
       </c>
       <c r="F34">
-        <v>-0.05715063734793116</v>
+        <v>0.02048670230584909</v>
       </c>
       <c r="G34">
-        <v>-0.01189906579368912</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01453292179076141</v>
+      </c>
+      <c r="H34">
+        <v>-0.03959515763572822</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01402805922254521</v>
+        <v>0.01984906255836617</v>
       </c>
       <c r="C36">
-        <v>-0.0009479432080710196</v>
+        <v>-0.004655153035886041</v>
       </c>
       <c r="D36">
-        <v>-0.003377968375088575</v>
+        <v>-0.001468605941554474</v>
       </c>
       <c r="E36">
-        <v>0.02736949616569873</v>
+        <v>-0.007241670796854037</v>
       </c>
       <c r="F36">
-        <v>-0.0356528687993871</v>
+        <v>0.005156994013355861</v>
       </c>
       <c r="G36">
-        <v>-0.03747473333915506</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01716423618258021</v>
+      </c>
+      <c r="H36">
+        <v>-0.01278660670430078</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.001224284730029581</v>
+        <v>0.02307392671376626</v>
       </c>
       <c r="C38">
-        <v>-0.01544773390604466</v>
+        <v>0.0157100504953614</v>
       </c>
       <c r="D38">
-        <v>-0.01363654188367346</v>
+        <v>-0.006243173952707758</v>
       </c>
       <c r="E38">
-        <v>-0.0267159675595191</v>
+        <v>0.0007429781765472678</v>
       </c>
       <c r="F38">
-        <v>-0.03600901516955311</v>
+        <v>0.008483036739392753</v>
       </c>
       <c r="G38">
-        <v>-0.0152696272173379</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01563894986987487</v>
+      </c>
+      <c r="H38">
+        <v>-0.03726165212834248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03611540995476195</v>
+        <v>0.01387237761517854</v>
       </c>
       <c r="C39">
-        <v>0.04416571731130964</v>
+        <v>-0.0008294474139443876</v>
       </c>
       <c r="D39">
-        <v>-0.02082382701327193</v>
+        <v>-0.07744079325722077</v>
       </c>
       <c r="E39">
-        <v>0.03217508997330333</v>
+        <v>0.003794648095559244</v>
       </c>
       <c r="F39">
-        <v>-0.06870221054679031</v>
+        <v>0.02265277028576544</v>
       </c>
       <c r="G39">
-        <v>-0.02718314807877863</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03279735941061561</v>
+      </c>
+      <c r="H39">
+        <v>-0.07369574313646785</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03271551433337679</v>
+        <v>0.02928653438413487</v>
       </c>
       <c r="C40">
-        <v>0.06779160858838024</v>
+        <v>-0.0001362227066157426</v>
       </c>
       <c r="D40">
-        <v>-0.0004974138623014281</v>
+        <v>-0.02136139252015315</v>
       </c>
       <c r="E40">
-        <v>-0.008592595844049972</v>
+        <v>0.02401123472335859</v>
       </c>
       <c r="F40">
-        <v>-0.07737502193933422</v>
+        <v>0.03226380203914461</v>
       </c>
       <c r="G40">
-        <v>-0.05033515346791834</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.01681076427728634</v>
+      </c>
+      <c r="H40">
+        <v>-0.06685050666322671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0008195480088490928</v>
+        <v>0.01112449254935567</v>
       </c>
       <c r="C41">
-        <v>-0.00351219484144716</v>
+        <v>-0.0007575200529441908</v>
       </c>
       <c r="D41">
-        <v>-0.01024751515931416</v>
+        <v>0.01308249932505777</v>
       </c>
       <c r="E41">
-        <v>0.005453680797044184</v>
+        <v>0.001638001692848687</v>
       </c>
       <c r="F41">
-        <v>-0.01154918119362274</v>
+        <v>-0.003082840992569189</v>
       </c>
       <c r="G41">
-        <v>-0.05771640624677205</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.005815136510452651</v>
+      </c>
+      <c r="H41">
+        <v>0.007097224855043519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3941603981931078</v>
+        <v>0.1898402807788803</v>
       </c>
       <c r="C42">
-        <v>-0.4194903245786483</v>
+        <v>-0.07302613422417203</v>
       </c>
       <c r="D42">
-        <v>-0.6577497713200186</v>
+        <v>-0.332519611850485</v>
       </c>
       <c r="E42">
-        <v>-0.3253721524700015</v>
+        <v>0.1630105231085353</v>
       </c>
       <c r="F42">
-        <v>0.2615942000050961</v>
+        <v>-0.8862304129635584</v>
       </c>
       <c r="G42">
-        <v>-0.1583136806219431</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1265631277806296</v>
+      </c>
+      <c r="H42">
+        <v>0.04177826247544383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.004125654496248296</v>
+        <v>0.01370472873824948</v>
       </c>
       <c r="C43">
-        <v>-0.007092055505730576</v>
+        <v>-0.001067083561009941</v>
       </c>
       <c r="D43">
-        <v>-0.01702511841702692</v>
+        <v>0.01383478342261358</v>
       </c>
       <c r="E43">
-        <v>0.004923339717002807</v>
+        <v>0.00443592554696534</v>
       </c>
       <c r="F43">
-        <v>-0.02555744530878093</v>
+        <v>-0.008065606566334978</v>
       </c>
       <c r="G43">
-        <v>-0.056714674428252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.005549629359098364</v>
+      </c>
+      <c r="H43">
+        <v>-0.004604914036325136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01324611838961177</v>
+        <v>0.01435407810488025</v>
       </c>
       <c r="C44">
-        <v>-0.009887449637325272</v>
+        <v>0.001196266189562517</v>
       </c>
       <c r="D44">
-        <v>-0.01430369600398623</v>
+        <v>-0.02322867036996913</v>
       </c>
       <c r="E44">
-        <v>0.01214890334623577</v>
+        <v>-0.006335154464690072</v>
       </c>
       <c r="F44">
-        <v>-0.1100904861962009</v>
+        <v>-0.0004121789517134782</v>
       </c>
       <c r="G44">
-        <v>-0.09445537749232143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03260934433153196</v>
+      </c>
+      <c r="H44">
+        <v>-0.06332825518080475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02035897396469418</v>
+        <v>0.01785837515032076</v>
       </c>
       <c r="C46">
-        <v>0.011764703267342</v>
+        <v>-0.004450086602002801</v>
       </c>
       <c r="D46">
-        <v>-0.0225081396810518</v>
+        <v>-0.01153278103373471</v>
       </c>
       <c r="E46">
-        <v>0.0405631858349453</v>
+        <v>-0.0009441291834775784</v>
       </c>
       <c r="F46">
-        <v>-0.06704356899470679</v>
+        <v>0.01627957660455976</v>
       </c>
       <c r="G46">
-        <v>-0.07014113412845525</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04374695279235108</v>
+      </c>
+      <c r="H46">
+        <v>-0.01709686576051775</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09408567511718079</v>
+        <v>0.07283511393867542</v>
       </c>
       <c r="C47">
-        <v>0.03393398319969379</v>
+        <v>0.02793740999608815</v>
       </c>
       <c r="D47">
-        <v>-6.299363820000613e-05</v>
+        <v>-0.04714434643364431</v>
       </c>
       <c r="E47">
-        <v>0.02464817267278898</v>
+        <v>0.0002996309429286153</v>
       </c>
       <c r="F47">
-        <v>-0.02694085891020773</v>
+        <v>0.02185964460608869</v>
       </c>
       <c r="G47">
-        <v>-0.09293922949925926</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01062030742565534</v>
+      </c>
+      <c r="H47">
+        <v>0.02137497845345996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01497179041194019</v>
+        <v>0.021255116188108</v>
       </c>
       <c r="C48">
-        <v>0.005648903202562569</v>
+        <v>0.005718093218177869</v>
       </c>
       <c r="D48">
-        <v>-0.01815378130654433</v>
+        <v>-0.00669780822244735</v>
       </c>
       <c r="E48">
-        <v>0.01692251268085636</v>
+        <v>-0.0005722522921493714</v>
       </c>
       <c r="F48">
-        <v>-0.05172582261232762</v>
+        <v>0.007941195040350561</v>
       </c>
       <c r="G48">
-        <v>-0.03134379899790803</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02314946414242241</v>
+      </c>
+      <c r="H48">
+        <v>-0.02040151694611587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08337334732256362</v>
+        <v>0.07033067301259276</v>
       </c>
       <c r="C50">
-        <v>0.04072036526631322</v>
+        <v>0.02498429569275428</v>
       </c>
       <c r="D50">
-        <v>-0.02328918779757495</v>
+        <v>-0.0473793431543495</v>
       </c>
       <c r="E50">
-        <v>0.02823721112976822</v>
+        <v>-0.01336740773629672</v>
       </c>
       <c r="F50">
-        <v>-0.05127250662463673</v>
+        <v>0.01914102066970131</v>
       </c>
       <c r="G50">
-        <v>-0.05258740488941136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01065788175485707</v>
+      </c>
+      <c r="H50">
+        <v>-0.001083236473224667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01682984504163852</v>
+        <v>0.01771880959142358</v>
       </c>
       <c r="C51">
-        <v>-0.02191955115103624</v>
+        <v>-0.002097071476294682</v>
       </c>
       <c r="D51">
-        <v>-0.003774603210472025</v>
+        <v>0.007572819251284529</v>
       </c>
       <c r="E51">
-        <v>-0.006957637232178013</v>
+        <v>-0.007385542793917861</v>
       </c>
       <c r="F51">
-        <v>-0.1157239254491762</v>
+        <v>-0.008788201850397895</v>
       </c>
       <c r="G51">
-        <v>-0.05413521014871724</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04290089336929253</v>
+      </c>
+      <c r="H51">
+        <v>-0.05824473654872064</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09736188435863595</v>
+        <v>0.08836164152761747</v>
       </c>
       <c r="C53">
-        <v>0.05470665544735517</v>
+        <v>0.03377997575569668</v>
       </c>
       <c r="D53">
-        <v>-0.01004742497512898</v>
+        <v>-0.08342797326326289</v>
       </c>
       <c r="E53">
-        <v>0.04030950433602673</v>
+        <v>-0.00224604027797436</v>
       </c>
       <c r="F53">
-        <v>0.04381920964951307</v>
+        <v>0.04467293032497012</v>
       </c>
       <c r="G53">
-        <v>-0.03086966181397085</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04609606729164844</v>
+      </c>
+      <c r="H53">
+        <v>0.0461103524809082</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02009954336318846</v>
+        <v>0.02514162829461667</v>
       </c>
       <c r="C54">
-        <v>0.00406151733558004</v>
+        <v>0.01051418718219328</v>
       </c>
       <c r="D54">
-        <v>0.0127796053186929</v>
+        <v>0.01336789651818284</v>
       </c>
       <c r="E54">
-        <v>0.03855188950160565</v>
+        <v>-0.008005088809034666</v>
       </c>
       <c r="F54">
-        <v>-0.05027147133464765</v>
+        <v>0.008235364226262762</v>
       </c>
       <c r="G54">
-        <v>-0.07608148775475913</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03684304877161361</v>
+      </c>
+      <c r="H54">
+        <v>0.001775164888915426</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1044303656381978</v>
+        <v>0.0735935315528239</v>
       </c>
       <c r="C55">
-        <v>0.02900525042387249</v>
+        <v>0.02944748361669204</v>
       </c>
       <c r="D55">
-        <v>0.00564437437414543</v>
+        <v>-0.07987438401685695</v>
       </c>
       <c r="E55">
-        <v>0.06868837374216369</v>
+        <v>-0.01054774895197111</v>
       </c>
       <c r="F55">
-        <v>0.03118028100704952</v>
+        <v>0.038626322440482</v>
       </c>
       <c r="G55">
-        <v>-0.07123066345390439</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01978314057109631</v>
+      </c>
+      <c r="H55">
+        <v>0.05235004588457196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1403871222333547</v>
+        <v>0.121238069700018</v>
       </c>
       <c r="C56">
-        <v>0.08034947199737691</v>
+        <v>0.05195515617317441</v>
       </c>
       <c r="D56">
-        <v>0.02369871109441972</v>
+        <v>-0.1073300602641689</v>
       </c>
       <c r="E56">
-        <v>0.06464891317324901</v>
+        <v>-0.002623919749922845</v>
       </c>
       <c r="F56">
-        <v>0.08590820380190715</v>
+        <v>0.06975763818988738</v>
       </c>
       <c r="G56">
-        <v>0.03667300951917736</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07647830151892249</v>
+      </c>
+      <c r="H56">
+        <v>0.05982798374527934</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04669953257947239</v>
+        <v>0.03769107320077373</v>
       </c>
       <c r="C57">
-        <v>0.008090121884944967</v>
+        <v>-0.01144111774749749</v>
       </c>
       <c r="D57">
-        <v>-0.01171304612483335</v>
+        <v>-0.03225322342140523</v>
       </c>
       <c r="E57">
-        <v>-0.02000837021739242</v>
+        <v>0.007883942927757277</v>
       </c>
       <c r="F57">
-        <v>-0.07179832738489497</v>
+        <v>0.01853132779230166</v>
       </c>
       <c r="G57">
-        <v>-0.0658622934506443</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05182093383553363</v>
+      </c>
+      <c r="H57">
+        <v>-0.04468767969245716</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2097335921282223</v>
+        <v>0.1455710892985008</v>
       </c>
       <c r="C58">
-        <v>0.09773348473054151</v>
+        <v>0.04197614465932818</v>
       </c>
       <c r="D58">
-        <v>-0.08980512524837157</v>
+        <v>-0.1558688440655003</v>
       </c>
       <c r="E58">
-        <v>0.113840770683658</v>
+        <v>0.1763339642148023</v>
       </c>
       <c r="F58">
-        <v>-0.391020013910426</v>
+        <v>0.0002026419760693895</v>
       </c>
       <c r="G58">
-        <v>-0.1306047724158771</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.863409052324066</v>
+      </c>
+      <c r="H58">
+        <v>0.308634705612409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04820565730857131</v>
+        <v>0.1685625968902514</v>
       </c>
       <c r="C59">
-        <v>-0.03408884764763501</v>
+        <v>0.03789413584124566</v>
       </c>
       <c r="D59">
-        <v>0.1232096483187526</v>
+        <v>0.2172443753492357</v>
       </c>
       <c r="E59">
-        <v>-0.1326027321360225</v>
+        <v>0.01859658374354327</v>
       </c>
       <c r="F59">
-        <v>-0.06832137917336303</v>
+        <v>-0.02415727244573197</v>
       </c>
       <c r="G59">
-        <v>0.01227112551035218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01518144849557335</v>
+      </c>
+      <c r="H59">
+        <v>-0.02599979378936767</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1567415940513985</v>
+        <v>0.1756355618182641</v>
       </c>
       <c r="C60">
-        <v>0.0671669063027049</v>
+        <v>0.03387797893107355</v>
       </c>
       <c r="D60">
-        <v>-0.0499268044395481</v>
+        <v>-0.02533860240440729</v>
       </c>
       <c r="E60">
-        <v>-0.08556158170673761</v>
+        <v>0.05032423944675334</v>
       </c>
       <c r="F60">
-        <v>-0.1551920071376802</v>
+        <v>0.0397852618534322</v>
       </c>
       <c r="G60">
-        <v>0.3156267105983274</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.01391521856911331</v>
+      </c>
+      <c r="H60">
+        <v>-0.3856251131148147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01937087435129627</v>
+        <v>0.02027324413123574</v>
       </c>
       <c r="C61">
-        <v>0.01349382121664712</v>
+        <v>0.005611789994089786</v>
       </c>
       <c r="D61">
-        <v>-0.01654417660369345</v>
+        <v>-0.04399328204989388</v>
       </c>
       <c r="E61">
-        <v>0.01633174888814413</v>
+        <v>-0.003241371650246881</v>
       </c>
       <c r="F61">
-        <v>-0.03697446232334871</v>
+        <v>0.02135896145964555</v>
       </c>
       <c r="G61">
-        <v>-0.0176619229960266</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01699311156583334</v>
+      </c>
+      <c r="H61">
+        <v>-0.0548333525836764</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01636229741517207</v>
+        <v>0.01251738714157137</v>
       </c>
       <c r="C63">
-        <v>0.004439969021273815</v>
+        <v>-0.00285801348218611</v>
       </c>
       <c r="D63">
-        <v>-0.0212253183882084</v>
+        <v>-0.01809665708580833</v>
       </c>
       <c r="E63">
-        <v>0.03113467854980963</v>
+        <v>-0.004844982486218331</v>
       </c>
       <c r="F63">
-        <v>-0.02100598640250807</v>
+        <v>0.01383098763405114</v>
       </c>
       <c r="G63">
-        <v>-0.06871902064176608</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01596777858842427</v>
+      </c>
+      <c r="H63">
+        <v>-0.009459456158493775</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03188348753779829</v>
+        <v>0.03695681785372782</v>
       </c>
       <c r="C64">
-        <v>0.002052846814013562</v>
+        <v>0.007925775413903467</v>
       </c>
       <c r="D64">
-        <v>0.0005566354219116554</v>
+        <v>-0.03720573626489035</v>
       </c>
       <c r="E64">
-        <v>0.06195697894597826</v>
+        <v>-0.01223632202642369</v>
       </c>
       <c r="F64">
-        <v>-0.02636246090789689</v>
+        <v>0.00644804356605674</v>
       </c>
       <c r="G64">
-        <v>-0.04948484163467836</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.001110724136931743</v>
+      </c>
+      <c r="H64">
+        <v>-0.03597711607598856</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.022705335499059</v>
+        <v>0.02965268725686424</v>
       </c>
       <c r="C65">
-        <v>0.01276863665789255</v>
+        <v>-0.005155696158579865</v>
       </c>
       <c r="D65">
-        <v>-0.01115064660121422</v>
+        <v>-0.06024317069638776</v>
       </c>
       <c r="E65">
-        <v>0.01947353875952614</v>
+        <v>-0.008394357263527254</v>
       </c>
       <c r="F65">
-        <v>-0.02148020184058151</v>
+        <v>0.0364254566075515</v>
       </c>
       <c r="G65">
-        <v>0.00641383109518279</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.004416473076011606</v>
+      </c>
+      <c r="H65">
+        <v>-0.07019550239610456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03391639919806546</v>
+        <v>0.01989033065900389</v>
       </c>
       <c r="C66">
-        <v>0.0498162161490275</v>
+        <v>0.003731667964683271</v>
       </c>
       <c r="D66">
-        <v>-0.0253660605928773</v>
+        <v>-0.09233592089470137</v>
       </c>
       <c r="E66">
-        <v>0.03149243664686801</v>
+        <v>0.006239157109820555</v>
       </c>
       <c r="F66">
-        <v>-0.05580724549456339</v>
+        <v>0.04117620123063612</v>
       </c>
       <c r="G66">
-        <v>-0.01398936206333338</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0243270043286097</v>
+      </c>
+      <c r="H66">
+        <v>-0.0768335206734477</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.009722448163043533</v>
+        <v>0.04225055968905649</v>
       </c>
       <c r="C67">
-        <v>-0.003231645184496489</v>
+        <v>0.01858682028531477</v>
       </c>
       <c r="D67">
-        <v>-0.008827749252406701</v>
+        <v>-0.005238244277146601</v>
       </c>
       <c r="E67">
-        <v>-0.04063664184338048</v>
+        <v>0.005288543425634845</v>
       </c>
       <c r="F67">
-        <v>-0.02133010129132337</v>
+        <v>0.016593203827723</v>
       </c>
       <c r="G67">
-        <v>0.001173320152826522</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.000521070778136186</v>
+      </c>
+      <c r="H67">
+        <v>-0.03431045149474939</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06568607192891451</v>
+        <v>0.165442337773012</v>
       </c>
       <c r="C68">
-        <v>-0.06028195292170647</v>
+        <v>0.01683678585600868</v>
       </c>
       <c r="D68">
-        <v>0.1498377465852057</v>
+        <v>0.2194239637237274</v>
       </c>
       <c r="E68">
-        <v>-0.1260072935317184</v>
+        <v>0.01176574057365616</v>
       </c>
       <c r="F68">
-        <v>-0.06245978898603984</v>
+        <v>-0.04947549636637611</v>
       </c>
       <c r="G68">
-        <v>0.04979247216470822</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.0303903483701885</v>
+      </c>
+      <c r="H68">
+        <v>0.03940898880077384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06945242565769139</v>
+        <v>0.05811125520760303</v>
       </c>
       <c r="C69">
-        <v>0.03967605609846923</v>
+        <v>0.02733270183520141</v>
       </c>
       <c r="D69">
-        <v>0.00748693252401113</v>
+        <v>-0.04281251913490969</v>
       </c>
       <c r="E69">
-        <v>0.008505553990469896</v>
+        <v>0.001933850646285524</v>
       </c>
       <c r="F69">
-        <v>-0.02110424437871162</v>
+        <v>0.03154193902410693</v>
       </c>
       <c r="G69">
-        <v>-0.08400058712502416</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01764655418790946</v>
+      </c>
+      <c r="H69">
+        <v>-0.004926816879375169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07325243931878556</v>
+        <v>0.154662886297637</v>
       </c>
       <c r="C71">
-        <v>-0.06980542040898706</v>
+        <v>0.0243429772361664</v>
       </c>
       <c r="D71">
-        <v>0.1388291632231177</v>
+        <v>0.1915387514234798</v>
       </c>
       <c r="E71">
-        <v>-0.1875264869646217</v>
+        <v>0.01785182582789661</v>
       </c>
       <c r="F71">
-        <v>-0.06407501138883767</v>
+        <v>-0.05647916097435783</v>
       </c>
       <c r="G71">
-        <v>-0.01072743340548757</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02510758284377908</v>
+      </c>
+      <c r="H71">
+        <v>0.02250352548444356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1122749957215484</v>
+        <v>0.07777317868728006</v>
       </c>
       <c r="C72">
-        <v>0.07822617130264167</v>
+        <v>0.03626821766065057</v>
       </c>
       <c r="D72">
-        <v>0.0246208969827963</v>
+        <v>-0.08251752738678074</v>
       </c>
       <c r="E72">
-        <v>0.02712239758164488</v>
+        <v>0.01399761170197799</v>
       </c>
       <c r="F72">
-        <v>-0.1359862806075287</v>
+        <v>0.08094237565617556</v>
       </c>
       <c r="G72">
-        <v>0.08899085733630535</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03975158967087731</v>
+      </c>
+      <c r="H72">
+        <v>-0.1690420063477248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2359409259071675</v>
+        <v>0.2363934750795497</v>
       </c>
       <c r="C73">
-        <v>0.08198203931230039</v>
+        <v>0.04291410438661013</v>
       </c>
       <c r="D73">
-        <v>-0.04322988740802382</v>
+        <v>-0.08230282221039902</v>
       </c>
       <c r="E73">
-        <v>-0.1918203590008377</v>
+        <v>0.08597407301421309</v>
       </c>
       <c r="F73">
-        <v>-0.2540013699651605</v>
+        <v>0.04128305300641109</v>
       </c>
       <c r="G73">
-        <v>0.4555767604081964</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.01926619275668652</v>
+      </c>
+      <c r="H73">
+        <v>-0.5122951433400825</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1413193586350715</v>
+        <v>0.114241717181592</v>
       </c>
       <c r="C74">
-        <v>0.03019920023365006</v>
+        <v>0.04885536859667819</v>
       </c>
       <c r="D74">
-        <v>0.01658043544718044</v>
+        <v>-0.1110124309993994</v>
       </c>
       <c r="E74">
-        <v>0.03570238952051318</v>
+        <v>-0.003872112035322627</v>
       </c>
       <c r="F74">
-        <v>0.06100928024379092</v>
+        <v>0.05308920823812496</v>
       </c>
       <c r="G74">
-        <v>0.01797851318434517</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.061057770363182</v>
+      </c>
+      <c r="H74">
+        <v>0.03497472428792216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2314916635409097</v>
+        <v>0.2204354465875248</v>
       </c>
       <c r="C75">
-        <v>0.1297870700675154</v>
+        <v>0.09608004134337451</v>
       </c>
       <c r="D75">
-        <v>0.05826787065644184</v>
+        <v>-0.1788081170342762</v>
       </c>
       <c r="E75">
-        <v>0.09507340277740638</v>
+        <v>0.01373371064677756</v>
       </c>
       <c r="F75">
-        <v>0.1047782839275571</v>
+        <v>0.1318229127148674</v>
       </c>
       <c r="G75">
-        <v>0.007128943724237448</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1236843161024414</v>
+      </c>
+      <c r="H75">
+        <v>0.1355416202579381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2745155850899269</v>
+        <v>0.1947273888568351</v>
       </c>
       <c r="C76">
-        <v>0.1103350660914515</v>
+        <v>0.08894971325987366</v>
       </c>
       <c r="D76">
-        <v>0.1071603799680998</v>
+        <v>-0.1684856145874186</v>
       </c>
       <c r="E76">
-        <v>0.13867227472423</v>
+        <v>-0.0350777864342188</v>
       </c>
       <c r="F76">
-        <v>0.1551733705809559</v>
+        <v>0.1264700197014913</v>
       </c>
       <c r="G76">
-        <v>0.01643988471217409</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1228051013939456</v>
+      </c>
+      <c r="H76">
+        <v>0.1344166418073885</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1365404679020227</v>
+        <v>0.06844845736770215</v>
       </c>
       <c r="C77">
-        <v>0.004547803858909331</v>
+        <v>0.00859735837713542</v>
       </c>
       <c r="D77">
-        <v>-0.06771084584107613</v>
+        <v>-0.06398407808529979</v>
       </c>
       <c r="E77">
-        <v>0.05888726855093666</v>
+        <v>0.008120702972138513</v>
       </c>
       <c r="F77">
-        <v>-0.1882181062384148</v>
+        <v>-0.009965199229598936</v>
       </c>
       <c r="G77">
-        <v>-0.1684858010443758</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08576127352032617</v>
+      </c>
+      <c r="H77">
+        <v>-0.01378506004135515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07515183703939776</v>
+        <v>0.03909413639346326</v>
       </c>
       <c r="C78">
-        <v>0.03420066458235534</v>
+        <v>0.009418245321760841</v>
       </c>
       <c r="D78">
-        <v>-0.04880296023102538</v>
+        <v>-0.05430095740381204</v>
       </c>
       <c r="E78">
-        <v>0.0760272986268066</v>
+        <v>-0.003686847980952874</v>
       </c>
       <c r="F78">
-        <v>-0.1050189355320165</v>
+        <v>0.02648396689216886</v>
       </c>
       <c r="G78">
-        <v>-0.0313691841461095</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05386374489024014</v>
+      </c>
+      <c r="H78">
+        <v>-0.07792660221503751</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1492825745038466</v>
+        <v>0.1353805490843367</v>
       </c>
       <c r="C80">
-        <v>-0.7559323177709014</v>
+        <v>0.03288634360325865</v>
       </c>
       <c r="D80">
-        <v>0.2149544388415836</v>
+        <v>-0.06236872583614887</v>
       </c>
       <c r="E80">
-        <v>0.5405084381002695</v>
+        <v>-0.9534795546460682</v>
       </c>
       <c r="F80">
-        <v>-0.07659960415257949</v>
+        <v>-0.1555560992868751</v>
       </c>
       <c r="G80">
-        <v>0.1822122017883117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1420027658722156</v>
+      </c>
+      <c r="H80">
+        <v>-0.01869620621033727</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1710366525706117</v>
+        <v>0.1445468767016301</v>
       </c>
       <c r="C81">
-        <v>0.09698039585196219</v>
+        <v>0.06188939760745982</v>
       </c>
       <c r="D81">
-        <v>0.06820084353082158</v>
+        <v>-0.1077036680490676</v>
       </c>
       <c r="E81">
-        <v>0.07820930858269395</v>
+        <v>-0.007932740817612196</v>
       </c>
       <c r="F81">
-        <v>0.1199068072935956</v>
+        <v>0.08322584117215394</v>
       </c>
       <c r="G81">
-        <v>0.0283376828892968</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.08198900612344799</v>
+      </c>
+      <c r="H81">
+        <v>0.0928296559971432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03984694892664815</v>
+        <v>0.03090276221468894</v>
       </c>
       <c r="C83">
-        <v>0.01811451439143677</v>
+        <v>0.004987329432084337</v>
       </c>
       <c r="D83">
-        <v>-0.03660332958662426</v>
+        <v>-0.02110009689474076</v>
       </c>
       <c r="E83">
-        <v>0.007476364221674033</v>
+        <v>0.006458322632974537</v>
       </c>
       <c r="F83">
-        <v>-0.03637554500345445</v>
+        <v>0.007850982650406768</v>
       </c>
       <c r="G83">
-        <v>-0.04586265211072234</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03459823318286509</v>
+      </c>
+      <c r="H83">
+        <v>-0.0394343895384278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2519872178661949</v>
+        <v>0.2110258681984686</v>
       </c>
       <c r="C85">
-        <v>0.1108391449296748</v>
+        <v>0.08007364715535624</v>
       </c>
       <c r="D85">
-        <v>0.06966039682407729</v>
+        <v>-0.1790612300000116</v>
       </c>
       <c r="E85">
-        <v>0.1028115881128191</v>
+        <v>0.006540179448650043</v>
       </c>
       <c r="F85">
-        <v>0.0991584983307737</v>
+        <v>0.1165592598419371</v>
       </c>
       <c r="G85">
-        <v>-0.03229237131296098</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1399417620455606</v>
+      </c>
+      <c r="H85">
+        <v>0.1001227060302176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.007026461890887907</v>
+        <v>0.02094370345785659</v>
       </c>
       <c r="C86">
-        <v>-0.005469998445540988</v>
+        <v>-0.0007548352637949191</v>
       </c>
       <c r="D86">
-        <v>-0.03249159967938926</v>
+        <v>-0.008216081773071759</v>
       </c>
       <c r="E86">
-        <v>0.04340706504895548</v>
+        <v>0.007204335013675884</v>
       </c>
       <c r="F86">
-        <v>-0.07085161355721334</v>
+        <v>-0.01439234578374303</v>
       </c>
       <c r="G86">
-        <v>-0.02568578582745555</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05733536342694603</v>
+      </c>
+      <c r="H86">
+        <v>-0.0845170914228805</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.04043462541561584</v>
+        <v>0.0262337809122742</v>
       </c>
       <c r="C87">
-        <v>-0.01072354356098961</v>
+        <v>0.001094625909584699</v>
       </c>
       <c r="D87">
-        <v>-0.01542333507286365</v>
+        <v>-0.03572150925859294</v>
       </c>
       <c r="E87">
-        <v>0.02494296469969252</v>
+        <v>-0.007338070242449657</v>
       </c>
       <c r="F87">
-        <v>-0.1186017979742188</v>
+        <v>0.01115259760335666</v>
       </c>
       <c r="G87">
-        <v>-0.03601771326639293</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07218591786690326</v>
+      </c>
+      <c r="H87">
+        <v>-0.08424830303073701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.005260304323173546</v>
+        <v>0.03346033266405173</v>
       </c>
       <c r="C88">
-        <v>0.0002404372514832742</v>
+        <v>-0.0126589677818528</v>
       </c>
       <c r="D88">
-        <v>0.01127408282139025</v>
+        <v>-0.005999090822283524</v>
       </c>
       <c r="E88">
-        <v>0.008685503470398122</v>
+        <v>-0.008677188407224657</v>
       </c>
       <c r="F88">
-        <v>0.003821962075932038</v>
+        <v>0.008850930926557712</v>
       </c>
       <c r="G88">
-        <v>-0.0465523738197911</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.008242698034224439</v>
+      </c>
+      <c r="H88">
+        <v>-0.01339610574413115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09173853167128974</v>
+        <v>0.2659854492630963</v>
       </c>
       <c r="C89">
-        <v>-0.08643298704852652</v>
+        <v>0.03976504843809921</v>
       </c>
       <c r="D89">
-        <v>0.1996035935094838</v>
+        <v>0.3415256344077277</v>
       </c>
       <c r="E89">
-        <v>-0.237338594591135</v>
+        <v>0.02772555255130004</v>
       </c>
       <c r="F89">
-        <v>-0.1049583926127329</v>
+        <v>-0.05180459943078817</v>
       </c>
       <c r="G89">
-        <v>-0.0280932099950802</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02188851961299034</v>
+      </c>
+      <c r="H89">
+        <v>0.00608160415512586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08249770491243268</v>
+        <v>0.2158382534786323</v>
       </c>
       <c r="C90">
-        <v>-0.1345062348235035</v>
+        <v>0.03288787590334337</v>
       </c>
       <c r="D90">
-        <v>0.2434304272956873</v>
+        <v>0.3055787554625598</v>
       </c>
       <c r="E90">
-        <v>-0.228407287975026</v>
+        <v>0.01933300058887168</v>
       </c>
       <c r="F90">
-        <v>-0.06058945998504303</v>
+        <v>-0.07505085561399703</v>
       </c>
       <c r="G90">
-        <v>-0.03850837750386477</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02416428000582966</v>
+      </c>
+      <c r="H90">
+        <v>0.06610118311210721</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.313088502687988</v>
+        <v>0.2261720679895329</v>
       </c>
       <c r="C91">
-        <v>0.1417252240443975</v>
+        <v>0.09612165333499928</v>
       </c>
       <c r="D91">
-        <v>0.06546507256381698</v>
+        <v>-0.1687613289330534</v>
       </c>
       <c r="E91">
-        <v>0.08943682009610709</v>
+        <v>0.011223639176203</v>
       </c>
       <c r="F91">
-        <v>0.2172404622369676</v>
+        <v>0.1202369523237034</v>
       </c>
       <c r="G91">
-        <v>0.02720234426539526</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1476114134699624</v>
+      </c>
+      <c r="H91">
+        <v>0.1758034079554672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1693154835703961</v>
+        <v>0.2604693966366676</v>
       </c>
       <c r="C92">
-        <v>-0.07767682885236395</v>
+        <v>0.09568582497550161</v>
       </c>
       <c r="D92">
-        <v>0.4048944291924038</v>
+        <v>0.2251221728891759</v>
       </c>
       <c r="E92">
-        <v>-0.2178582292407541</v>
+        <v>0.008182210925912595</v>
       </c>
       <c r="F92">
-        <v>0.1073084493689423</v>
+        <v>0.001876465886368814</v>
       </c>
       <c r="G92">
-        <v>-0.4581835241240779</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.00749568923298729</v>
+      </c>
+      <c r="H92">
+        <v>0.1498640914481367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08911465252770571</v>
+        <v>0.2378737776710783</v>
       </c>
       <c r="C93">
-        <v>-0.1368008617292144</v>
+        <v>0.04403836138583709</v>
       </c>
       <c r="D93">
-        <v>0.2863312997414967</v>
+        <v>0.3210053338038253</v>
       </c>
       <c r="E93">
-        <v>-0.3398296879962428</v>
+        <v>0.04195956518941249</v>
       </c>
       <c r="F93">
-        <v>-0.01373715000256771</v>
+        <v>-0.08260890089986254</v>
       </c>
       <c r="G93">
-        <v>0.05044556425541984</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02183309746047622</v>
+      </c>
+      <c r="H93">
+        <v>0.01287444275770049</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3027365116915935</v>
+        <v>0.251753210856578</v>
       </c>
       <c r="C94">
-        <v>0.1958694771372686</v>
+        <v>0.08691179621553904</v>
       </c>
       <c r="D94">
-        <v>0.1343714770494261</v>
+        <v>-0.1667807303548832</v>
       </c>
       <c r="E94">
-        <v>0.1242280734651302</v>
+        <v>0.02783072776645564</v>
       </c>
       <c r="F94">
-        <v>0.209194584231556</v>
+        <v>0.1685108258192665</v>
       </c>
       <c r="G94">
-        <v>0.05322578267375647</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1333712419251076</v>
+      </c>
+      <c r="H94">
+        <v>0.2114175612990148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06552689519606883</v>
+        <v>0.05000979366056421</v>
       </c>
       <c r="C95">
-        <v>0.05060314142486803</v>
+        <v>0.02755202097596247</v>
       </c>
       <c r="D95">
-        <v>-0.08084977399788419</v>
+        <v>-0.08573264323575956</v>
       </c>
       <c r="E95">
-        <v>0.04798412260145491</v>
+        <v>0.07749293537054842</v>
       </c>
       <c r="F95">
-        <v>-0.006016679400087218</v>
+        <v>0.003037305045369647</v>
       </c>
       <c r="G95">
-        <v>-0.1586979780678677</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.02669499540046155</v>
+      </c>
+      <c r="H95">
+        <v>-0.04948530471561097</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1785965238310879</v>
+        <v>0.1816861235740427</v>
       </c>
       <c r="C98">
-        <v>0.01952041592768359</v>
+        <v>0.06550082120849768</v>
       </c>
       <c r="D98">
-        <v>-0.03725666433676025</v>
+        <v>-0.05240370450566228</v>
       </c>
       <c r="E98">
-        <v>-0.1180585335670395</v>
+        <v>0.0477413205678917</v>
       </c>
       <c r="F98">
-        <v>-0.132958023474954</v>
+        <v>0.01183615466439576</v>
       </c>
       <c r="G98">
-        <v>0.3755012728977205</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.05725280160255344</v>
+      </c>
+      <c r="H98">
+        <v>-0.3759051468461801</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005445352279354703</v>
+        <v>0.01429525608500743</v>
       </c>
       <c r="C101">
-        <v>0.01385433594705987</v>
+        <v>-0.001308887180026128</v>
       </c>
       <c r="D101">
-        <v>-0.01861355709092951</v>
+        <v>-0.006662436477872545</v>
       </c>
       <c r="E101">
-        <v>0.09207899157184325</v>
+        <v>-0.005899144018526949</v>
       </c>
       <c r="F101">
-        <v>-0.1630282282748056</v>
+        <v>0.02273058285631333</v>
       </c>
       <c r="G101">
-        <v>-0.1846047120743714</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1054753635211108</v>
+      </c>
+      <c r="H101">
+        <v>0.01532367179804723</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1113382441949865</v>
+        <v>0.1018769362137956</v>
       </c>
       <c r="C102">
-        <v>0.06178870637537559</v>
+        <v>0.03114923299723204</v>
       </c>
       <c r="D102">
-        <v>0.009305645794603357</v>
+        <v>-0.08728478700183458</v>
       </c>
       <c r="E102">
-        <v>0.06464367884833515</v>
+        <v>0.0001366905704012114</v>
       </c>
       <c r="F102">
-        <v>0.1014131320849784</v>
+        <v>0.06027048182270377</v>
       </c>
       <c r="G102">
-        <v>-0.004384884945898977</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07769592177294667</v>
+      </c>
+      <c r="H102">
+        <v>0.07185670842625742</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02659617401883619</v>
+        <v>0.0177888443193432</v>
       </c>
       <c r="C103">
-        <v>0.01832034359092312</v>
+        <v>0.006409397320317693</v>
       </c>
       <c r="D103">
-        <v>0.003698324051367428</v>
+        <v>-0.01813046429980489</v>
       </c>
       <c r="E103">
-        <v>0.02226590491585782</v>
+        <v>-0.01040238546038621</v>
       </c>
       <c r="F103">
-        <v>-0.002436558874139122</v>
+        <v>0.01320606034817378</v>
       </c>
       <c r="G103">
-        <v>-0.009176692990530762</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.001091657918984884</v>
+      </c>
+      <c r="H103">
+        <v>0.007965388722818543</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2505212481837767</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9522580598798187</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.02023532177450976</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.01970430266435874</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1370064400335913</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01879546699203518</v>
+      </c>
+      <c r="H104">
+        <v>0.04462810779831089</v>
       </c>
     </row>
   </sheetData>
